--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,106 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -774,8 +781,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F12" s="3">
         <v>15700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>10100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F17" s="3">
         <v>21900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>25000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-11200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-25000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1242,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-10600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-24300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1388,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-15000</v>
       </c>
       <c r="H23" s="3">
         <v>-10800</v>
       </c>
       <c r="I23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1488,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-15000</v>
       </c>
       <c r="H26" s="3">
         <v>-10800</v>
       </c>
       <c r="I26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-15000</v>
       </c>
       <c r="H27" s="3">
         <v>-10800</v>
       </c>
       <c r="I27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-25000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-15000</v>
       </c>
       <c r="H33" s="3">
         <v>-10800</v>
       </c>
       <c r="I33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-25000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-15000</v>
       </c>
       <c r="H35" s="3">
         <v>-10800</v>
       </c>
       <c r="I35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-25000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F41" s="3">
         <v>32600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>113800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>67000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>115100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>104000</v>
       </c>
       <c r="I41" s="3">
         <v>115100</v>
       </c>
       <c r="J41" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>115100</v>
+      </c>
+      <c r="L41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,38 +2183,44 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>121100</v>
+      </c>
+      <c r="F42" s="3">
         <v>143400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>71300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>92700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>60600</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>24900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,8 +2233,14 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2063,22 +2248,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>25000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2098,8 +2283,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2333,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2383,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>185200</v>
+      </c>
+      <c r="F46" s="3">
         <v>179200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>188400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>162000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>177900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>106200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>116900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>50900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2433,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2483,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F48" s="3">
         <v>9000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2533,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,19 +2683,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2474,14 +2713,14 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2783,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>196400</v>
+      </c>
+      <c r="F54" s="3">
         <v>188500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>196900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>171000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>181300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>109000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>119000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2877,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,37 +2923,43 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>600</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2706,38 +2973,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F59" s="3">
         <v>29500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>27400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +3023,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F60" s="3">
         <v>32500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>34100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +3073,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2818,14 +3103,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +3123,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F62" s="3">
         <v>34200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>39400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>43600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3323,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F66" s="3">
         <v>66800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>68000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>73500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>74700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>109200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3593,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-146300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-130100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-117600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-106800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-91900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-81100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-66400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3793,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>112900</v>
+      </c>
+      <c r="F76" s="3">
         <v>121800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>129000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>97500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>106600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>102300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>111600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-61900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-15000</v>
       </c>
       <c r="H81" s="3">
         <v>-10800</v>
       </c>
       <c r="I81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-25000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,25 +4022,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3654,25 +4051,31 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>55100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-21700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-72200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>21100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-32400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-60900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>24900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>17700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>9000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>42100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>16900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>79000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>50500</v>
       </c>
       <c r="L100" s="3">
         <v>-200</v>
       </c>
       <c r="M100" s="3">
+        <v>50500</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>46800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-48100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>92200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-33600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,49 +1150,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>22700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5900</v>
       </c>
       <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>5900</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1174,49 +1201,52 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-5900</v>
       </c>
       <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,49 +1277,50 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>900</v>
       </c>
       <c r="H20" s="3">
+        <v>900</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,58 +1328,64 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,49 +1434,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-5900</v>
       </c>
       <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-5900</v>
       </c>
       <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-5900</v>
       </c>
       <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,49 +1911,52 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-900</v>
       </c>
       <c r="H32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-5900</v>
       </c>
       <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-5900</v>
       </c>
       <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E41" s="3">
         <v>95400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,41 +2276,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E42" s="3">
         <v>65200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>121100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>143400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>71300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>92700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>60600</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>24900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,20 +2329,23 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>25000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2358,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3200</v>
       </c>
       <c r="G45" s="3">
         <v>3200</v>
       </c>
       <c r="H45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E46" s="3">
         <v>164200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>185200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>179200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>188400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>177900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>106200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>116900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,22 +2806,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2719,11 +2839,11 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E54" s="3">
         <v>175700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>196400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>188500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>196900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>181300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,16 +3060,19 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2947,23 +3081,23 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E59" s="3">
         <v>24900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3400</v>
       </c>
       <c r="K59" s="3">
         <v>3400</v>
       </c>
       <c r="L59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E60" s="3">
         <v>27100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3109,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,40 +3272,43 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E62" s="3">
         <v>50000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>700</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E66" s="3">
         <v>77100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>73500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>109200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-174900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-146300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-130100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E76" s="3">
         <v>98600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>121800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>129000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-61900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-5900</v>
       </c>
       <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>-5900</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,7 +4235,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4045,7 +4244,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4057,16 +4256,16 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>200</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E94" s="3">
         <v>56100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-72200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-60900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>24900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>79000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E102" s="3">
         <v>59100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-81200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>92200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E12" s="3">
         <v>17000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,52 +1177,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5900</v>
       </c>
       <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>5900</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1204,52 +1231,55 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-5900</v>
       </c>
       <c r="P18" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>-5900</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,52 +1311,53 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>700</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,61 +1365,67 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,52 +1477,55 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-5900</v>
       </c>
       <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>-5900</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1533,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-5900</v>
       </c>
       <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>-5900</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,52 +1701,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-5900</v>
       </c>
       <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>-5900</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,52 +1981,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-700</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-5900</v>
       </c>
       <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>-5900</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-5900</v>
       </c>
       <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>-5900</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,66 +2205,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E41" s="3">
         <v>115100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>115100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,44 +2366,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E42" s="3">
         <v>26000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>121100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>143400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>71300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>92700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>60600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>24900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,23 +2422,26 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>25000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2454,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3200</v>
       </c>
       <c r="H45" s="3">
         <v>3200</v>
       </c>
       <c r="I45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E46" s="3">
         <v>145200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>164200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>185200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>179200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>162000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>177900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>106200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>116900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,25 +2926,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2842,11 +2962,11 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E54" s="3">
         <v>156400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>175700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>196400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>188500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>196900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>181300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,8 +3208,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3084,23 +3218,23 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,44 +3250,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E59" s="3">
         <v>29900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3400</v>
       </c>
       <c r="L59" s="3">
         <v>3400</v>
       </c>
       <c r="M59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E60" s="3">
         <v>32600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3255,11 +3398,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,43 +3418,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E62" s="3">
         <v>41600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>43600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>700</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E66" s="3">
         <v>74200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>73500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>109200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-217800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-194200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-174900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-146300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-130100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-117600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-106800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E76" s="3">
         <v>82200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>121800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>129000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-61900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-5900</v>
       </c>
       <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>-5900</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,7 +4437,7 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4247,7 +4446,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4259,16 +4458,16 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>200</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-700</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
       </c>
       <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E94" s="3">
         <v>38900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>56100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>21200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-72200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-60900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>17700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>42100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>79000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E102" s="3">
         <v>19700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-81200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>92200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -801,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E12" s="3">
         <v>18400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,55 +1203,56 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E17" s="3">
         <v>26700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5900</v>
       </c>
       <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>5900</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1234,55 +1260,58 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q18" s="3">
         <v>-5900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>-5900</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1290,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,55 +1344,56 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
       </c>
       <c r="H20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3">
         <v>900</v>
       </c>
       <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,64 +1401,70 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,55 +1519,58 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>-5900</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1536,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1696,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q26" s="3">
         <v>-5900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>-5900</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1704,55 +1755,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q27" s="3">
         <v>-5900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>-5900</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1760,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,55 +2050,58 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
       </c>
       <c r="H32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3">
         <v>-900</v>
       </c>
       <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,55 +2109,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q33" s="3">
         <v>-5900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>-5900</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2227,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q35" s="3">
         <v>-5900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>-5900</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2208,69 +2286,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E41" s="3">
         <v>56200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2455,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E42" s="3">
         <v>60000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>121100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>143400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>71300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>92700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>60600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>24900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,26 +2514,29 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>25000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2549,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2481,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3200</v>
       </c>
       <c r="I45" s="3">
         <v>3200</v>
       </c>
       <c r="J45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>344400</v>
+      </c>
+      <c r="E46" s="3">
         <v>119400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>145200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>185200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>179200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>177900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>116900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E48" s="3">
         <v>40500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3045,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2938,19 +3057,19 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -2965,11 +3084,11 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>388300</v>
+      </c>
+      <c r="E54" s="3">
         <v>163400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>156400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>175700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>196400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>188500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>196900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3211,8 +3344,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3221,23 +3354,23 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,47 +3386,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E59" s="3">
         <v>31800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3400</v>
       </c>
       <c r="M59" s="3">
         <v>3400</v>
       </c>
       <c r="N59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>32900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,13 +3504,16 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>24700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3401,11 +3543,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,46 +3563,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E62" s="3">
         <v>67600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>700</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E66" s="3">
         <v>100400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>73500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3871,11 +4038,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>109200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-244300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-217800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-194200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-157800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-146300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-130100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-117600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-106800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-81100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-66400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>260800</v>
+      </c>
+      <c r="E76" s="3">
         <v>63000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>121800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-61900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,116 +4471,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q81" s="3">
         <v>-5900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>-5900</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,13 +4619,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -4440,7 +4638,7 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4449,7 +4647,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4461,16 +4659,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>200</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-700</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
       </c>
       <c r="L91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>38900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>56100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>42100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>79000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>50500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-81200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>92200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -807,8 +811,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E12" s="3">
         <v>21800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,58 +1230,59 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E17" s="3">
         <v>29500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5900</v>
       </c>
       <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>5900</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1263,58 +1290,61 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-5900</v>
       </c>
       <c r="R18" s="3">
         <v>-5900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>-5900</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,58 +1378,59 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
       </c>
       <c r="I20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>900</v>
       </c>
       <c r="K20" s="3">
+        <v>900</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,67 +1438,73 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,58 +1562,61 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-5900</v>
       </c>
       <c r="R23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>-5900</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,58 +1748,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-5900</v>
       </c>
       <c r="R26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>-5900</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1758,58 +1810,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-5900</v>
       </c>
       <c r="R27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>-5900</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,58 +2120,61 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
       </c>
       <c r="I32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-900</v>
       </c>
       <c r="K32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,58 +2182,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-5900</v>
       </c>
       <c r="R33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>-5900</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,58 +2306,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-5900</v>
       </c>
       <c r="R35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>-5900</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2289,72 +2368,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E41" s="3">
         <v>160400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,50 +2545,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E42" s="3">
         <v>180700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>60000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>121100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>143400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>71300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>60600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>24900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,29 +2607,32 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>25000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2552,8 +2645,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3200</v>
       </c>
       <c r="J45" s="3">
         <v>3200</v>
       </c>
       <c r="K45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>318500</v>
+      </c>
+      <c r="E46" s="3">
         <v>344400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>145200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>185200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>179200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>177900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>106200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>116900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E48" s="3">
         <v>40400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3165,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,19 +3180,19 @@
         <v>3500</v>
       </c>
       <c r="F52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3087,11 +3207,11 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>360600</v>
+      </c>
+      <c r="E54" s="3">
         <v>388300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>156400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>175700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>196400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>188500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>196900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>181300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,22 +3461,25 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3357,23 +3491,23 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E59" s="3">
         <v>39200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3400</v>
       </c>
       <c r="N59" s="3">
         <v>3400</v>
       </c>
       <c r="O59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E60" s="3">
         <v>42600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,17 +3647,20 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E61" s="3">
         <v>24700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3546,11 +3689,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,49 +3709,52 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E62" s="3">
         <v>60300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>700</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E66" s="3">
         <v>127500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,11 +4209,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>109200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-244300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-217800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-194200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-174900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-157800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-146300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-130100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-117600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-106800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-81100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E76" s="3">
         <v>260800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>121800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-61900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,122 +4663,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-5900</v>
       </c>
       <c r="R81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>-5900</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,16 +4818,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4641,7 +4840,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4650,7 +4849,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4662,16 +4861,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>200</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
       </c>
       <c r="L91" s="3">
         <v>-700</v>
       </c>
       <c r="M91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>38900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>56100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>24900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>246500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>79000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>104100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-81200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>92200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -814,8 +818,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +883,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E12" s="3">
         <v>22500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,61 +1257,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E17" s="3">
         <v>31900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>5900</v>
       </c>
       <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>5900</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1293,61 +1320,64 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-5900</v>
       </c>
       <c r="S18" s="3">
         <v>-5900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>-5900</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,61 +1412,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>700</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
       </c>
       <c r="J20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
       </c>
       <c r="L20" s="3">
+        <v>900</v>
+      </c>
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,70 +1475,76 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,61 +1605,64 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-5900</v>
       </c>
       <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>-5900</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
@@ -1627,8 +1670,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,61 +1800,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-5900</v>
       </c>
       <c r="S26" s="3">
         <v>-5900</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>-5900</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
@@ -1813,61 +1865,64 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-5900</v>
       </c>
       <c r="S27" s="3">
         <v>-5900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>-5900</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,61 +2190,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-700</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
       </c>
       <c r="J32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
       </c>
       <c r="L32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,61 +2255,64 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-5900</v>
       </c>
       <c r="S33" s="3">
         <v>-5900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>-5900</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,61 +2385,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-5900</v>
       </c>
       <c r="S35" s="3">
         <v>-5900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>-5900</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
@@ -2371,75 +2450,81 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E41" s="3">
         <v>159100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>160400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,53 +2635,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E42" s="3">
         <v>155600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>180700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>60000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>143400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>92700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60600</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>24900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2700,35 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>25000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2741,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,53 +2830,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3200</v>
       </c>
       <c r="K45" s="3">
         <v>3200</v>
       </c>
       <c r="L45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,53 +2895,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E46" s="3">
         <v>318500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>344400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>164200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>185200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>179200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>162000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>177900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>106200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>116900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,53 +3025,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E48" s="3">
         <v>38600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>40500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3090,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3183,19 +3303,19 @@
         <v>3500</v>
       </c>
       <c r="G52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3210,11 +3330,11 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E54" s="3">
         <v>360600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>388300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>163400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>156400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>175700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>196400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>188500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>196900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>181300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3494,23 +3628,23 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,53 +3660,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E59" s="3">
         <v>67800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3400</v>
       </c>
       <c r="O59" s="3">
         <v>3400</v>
       </c>
       <c r="P59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,53 +3725,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E60" s="3">
         <v>70000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3790,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3659,11 +3802,11 @@
         <v>24800</v>
       </c>
       <c r="E61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F61" s="3">
         <v>24700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3692,11 +3835,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3712,52 +3855,55 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E62" s="3">
         <v>25300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>67600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>700</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E66" s="3">
         <v>120000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>127500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,11 +4380,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>109200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-272000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-244300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-217800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-194200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-174900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-146300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-130100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-106800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-91900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-81100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216700</v>
+      </c>
+      <c r="E76" s="3">
         <v>240500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>260800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>121800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>129000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>102300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,128 +4855,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-5900</v>
       </c>
       <c r="S81" s="3">
         <v>-5900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>-5900</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,10 +5027,10 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4843,7 +5042,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4852,7 +5051,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4864,16 +5063,16 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>200</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
       </c>
       <c r="M91" s="3">
         <v>-700</v>
       </c>
       <c r="N91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E94" s="3">
         <v>22600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>38900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>56100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-72200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>24900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>246500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>79000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>104100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-58900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-81200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>92200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -821,8 +825,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E12" s="3">
         <v>25600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,64 +1284,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E17" s="3">
         <v>34900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5900</v>
       </c>
       <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>5900</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1323,64 +1350,67 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-5900</v>
       </c>
       <c r="T18" s="3">
         <v>-5900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>-5900</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,64 +1446,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
       </c>
       <c r="K20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L20" s="3">
         <v>900</v>
       </c>
       <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1478,73 +1512,79 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-8700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,64 +1648,67 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-5900</v>
       </c>
       <c r="T23" s="3">
         <v>-5900</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>-5900</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
@@ -1673,8 +1716,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,64 +1852,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-5900</v>
       </c>
       <c r="T26" s="3">
         <v>-5900</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>-5900</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
@@ -1868,64 +1920,67 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-5900</v>
       </c>
       <c r="T27" s="3">
         <v>-5900</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>-5900</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,64 +2260,67 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-700</v>
       </c>
       <c r="K32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="L32" s="3">
         <v>-900</v>
       </c>
       <c r="M32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2258,64 +2328,67 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-5900</v>
       </c>
       <c r="T33" s="3">
         <v>-5900</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>-5900</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,64 +2464,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-5900</v>
       </c>
       <c r="T35" s="3">
         <v>-5900</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>-5900</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
@@ -2453,78 +2532,84 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E41" s="3">
         <v>206900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>115100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,56 +2725,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E42" s="3">
         <v>75300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>155600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>180700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>60000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>65200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>143400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>60600</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>24900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2793,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2714,24 +2807,24 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>25000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2744,8 +2837,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,56 +2929,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3200</v>
       </c>
       <c r="L45" s="3">
         <v>3200</v>
       </c>
       <c r="M45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,56 +2997,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E46" s="3">
         <v>290400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>344400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>164200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>185200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>177900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>106200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>116900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,56 +3133,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E48" s="3">
         <v>38200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>40400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,13 +3405,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
         <v>3500</v>
@@ -3306,19 +3426,19 @@
         <v>3500</v>
       </c>
       <c r="H52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3333,11 +3453,11 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E54" s="3">
         <v>332100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>360600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>388300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>163400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>156400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>175700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>196400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>188500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>196900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>181300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,56 +3663,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3631,23 +3765,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,56 +3797,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E59" s="3">
         <v>65400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3400</v>
       </c>
       <c r="P59" s="3">
         <v>3400</v>
       </c>
       <c r="Q59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,56 +3865,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E60" s="3">
         <v>67000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,23 +3933,26 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E61" s="3">
         <v>24800</v>
       </c>
       <c r="F61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G61" s="3">
         <v>24700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3838,11 +3981,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3858,55 +4001,58 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
         <v>23500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>67600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>700</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E66" s="3">
         <v>115400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>127500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,11 +4551,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>109200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-340200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-302700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-272000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-244300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-217800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-174900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-146300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-130100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-106800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-81100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E76" s="3">
         <v>216700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>240500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>260800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>121800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>129000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>102300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-61900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,134 +5047,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-5900</v>
       </c>
       <c r="T81" s="3">
         <v>-5900</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>-5900</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,22 +5216,23 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -5045,7 +5244,7 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -5054,7 +5253,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5066,16 +5265,16 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>200</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-700</v>
       </c>
       <c r="N91" s="3">
         <v>-700</v>
       </c>
       <c r="O91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>79000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-122600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>38900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>56100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-60900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>24900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>17700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>246500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>79000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>50500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>47800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>104100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-58900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-81200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>92200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,153 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -828,8 +831,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E12" s="3">
         <v>31300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,67 +1310,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E17" s="3">
         <v>42500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5900</v>
       </c>
       <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>5900</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1353,67 +1379,70 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-5900</v>
       </c>
       <c r="U18" s="3">
         <v>-5900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>-5900</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1421,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,58 +1489,58 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
       </c>
       <c r="L20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M20" s="3">
         <v>900</v>
       </c>
       <c r="N20" s="3">
+        <v>900</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,76 +1548,82 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-8700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-24300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,67 +1690,70 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-5900</v>
       </c>
       <c r="U23" s="3">
         <v>-5900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>-5900</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1719,8 +1761,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1832,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,67 +1903,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-5900</v>
       </c>
       <c r="U26" s="3">
         <v>-5900</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>-5900</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1923,67 +1974,70 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-5900</v>
       </c>
       <c r="U27" s="3">
         <v>-5900</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>-5900</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -1991,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2272,58 +2341,58 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
       </c>
       <c r="L32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="M32" s="3">
         <v>-900</v>
       </c>
       <c r="N32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,67 +2400,70 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-5900</v>
       </c>
       <c r="U33" s="3">
         <v>-5900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>-5900</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2399,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,67 +2542,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-5900</v>
       </c>
       <c r="U35" s="3">
         <v>-5900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>-5900</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2535,81 +2613,87 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2745,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E41" s="3">
         <v>176100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>206900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>113800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>115100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,59 +2814,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E42" s="3">
         <v>70300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>75300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>155600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>180700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>60000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>65200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>143400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>60600</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>24900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,19 +2885,22 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2816,18 +2908,18 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>25000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2932,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2864,8 +2956,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,59 +3027,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3200</v>
       </c>
       <c r="M45" s="3">
         <v>3200</v>
       </c>
       <c r="N45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3098,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>265300</v>
+      </c>
+      <c r="E46" s="3">
         <v>258200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>290400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>344400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>145200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>185200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>177900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>116900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,59 +3240,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,16 +3524,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3500</v>
       </c>
       <c r="F52" s="3">
         <v>3500</v>
@@ -3429,19 +3548,19 @@
         <v>3500</v>
       </c>
       <c r="I52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3456,11 +3575,11 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3666,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E54" s="3">
         <v>298400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>332100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>360600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>388300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>156400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>175700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>196400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>188500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>181300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>119000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3793,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,31 +3862,34 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3768,23 +3901,23 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,59 +3933,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E59" s="3">
         <v>62600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3400</v>
       </c>
       <c r="Q59" s="3">
         <v>3400</v>
       </c>
       <c r="R59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4004,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E60" s="3">
         <v>64600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,26 +4075,29 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E61" s="3">
         <v>24900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>24800</v>
       </c>
       <c r="F61" s="3">
         <v>24800</v>
       </c>
       <c r="G61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H61" s="3">
         <v>24700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3984,11 +4126,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4004,58 +4146,61 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
         <v>21600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>700</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4430,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E66" s="3">
         <v>111100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>127500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4554,11 +4721,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>109200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4812,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-376100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-340200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-302700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-272000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-244300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-217800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-174900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-146300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-130100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-117600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-106800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5096,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E76" s="3">
         <v>187300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>216700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>240500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>260800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>63000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>121800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>129000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>102300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-61900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,140 +5238,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-5900</v>
       </c>
       <c r="U81" s="3">
         <v>-5900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>-5900</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5191,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5226,16 +5424,16 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5247,7 +5445,7 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -5256,7 +5454,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5268,16 +5466,16 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>200</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5285,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>55100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-700</v>
       </c>
       <c r="O91" s="3">
         <v>-700</v>
       </c>
       <c r="P91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E94" s="3">
         <v>3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>79000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-122600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>38900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>56100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>24900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>17700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>246500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>79000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>50500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>47800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>104100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-81200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>92200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -834,8 +842,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,8 +919,14 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +996,14 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,79 +1029,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="3">
         <v>29100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>31300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>25600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>22500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>21800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>18400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>17000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>11400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>4700</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1179,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1256,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1333,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1363,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F17" s="3">
         <v>39400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>42500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>31900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>29500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>14900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>25000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-37000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-30300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-17700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-11200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-9000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-25000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,19 +1546,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
@@ -1501,129 +1569,141 @@
         <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-36800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-30100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-27100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-23200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-11200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-15800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-10600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-8700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-24300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,79 +1773,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-30700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-19300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q23" s="3">
         <v>-10800</v>
       </c>
       <c r="R23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T23" s="3">
         <v>-14700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-25000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5900</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +1927,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +2004,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-37500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-26600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-19300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q26" s="3">
         <v>-10800</v>
       </c>
       <c r="R26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T26" s="3">
         <v>-14700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-25000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-5900</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-37500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-26600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-19300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q27" s="3">
         <v>-10800</v>
       </c>
       <c r="R27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-14700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-25000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-5900</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2235,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2312,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2389,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,19 +2466,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
@@ -2353,129 +2493,141 @@
         <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-37500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-26600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-19300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q33" s="3">
         <v>-10800</v>
       </c>
       <c r="R33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T33" s="3">
         <v>-14700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-25000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-5900</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2697,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-37500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-26600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-19300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q35" s="3">
         <v>-10800</v>
       </c>
       <c r="R35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T35" s="3">
         <v>-14700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-25000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-5900</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2889,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,65 +2918,67 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F41" s="3">
         <v>212800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>176100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>206900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>159100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>160400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>56200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>115100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>95400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>32600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>113800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>67000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>115100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>104000</v>
       </c>
       <c r="R41" s="3">
         <v>115100</v>
       </c>
       <c r="S41" s="3">
+        <v>104000</v>
+      </c>
+      <c r="T41" s="3">
+        <v>115100</v>
+      </c>
+      <c r="U41" s="3">
         <v>22800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,65 +2991,71 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F42" s="3">
         <v>40200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>70300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>75300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>155600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>180700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>60000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>26000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>65200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>121100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>143400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>71300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>92700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>60600</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>24900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,8 +3068,14 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2918,14 +3104,14 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>25000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,11 +3121,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2959,8 +3145,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,65 +3222,71 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,65 +3299,71 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>389100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>228600</v>
+      </c>
+      <c r="F46" s="3">
         <v>265300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>258200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>290400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>318500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>344400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>119400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>145200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>164200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>185200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>179200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>188400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>162000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>177900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>106200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>116900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>50900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,8 +3376,14 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,65 +3453,71 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F48" s="3">
         <v>35000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>36600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>38200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>38600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>40400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>40500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3530,14 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3385,8 +3607,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3684,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,22 +3761,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>3500</v>
@@ -3551,22 +3791,22 @@
         <v>3500</v>
       </c>
       <c r="J52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3578,14 +3818,14 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3838,14 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,65 +3915,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>424100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F54" s="3">
         <v>304400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>298400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>332100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>360600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>388300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>163400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>156400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>175700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>196400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>188500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>196900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>171000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>181300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>109000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>119000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>54200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3992,14 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +4025,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,65 +4054,67 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,20 +4127,26 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3891,11 +4159,11 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3904,25 +4172,25 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
+        <v>600</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -3936,65 +4204,71 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F59" s="3">
         <v>58300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>62600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>65400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>67800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>39200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>31800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>29900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>31700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>29500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>30200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>30600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>27400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,65 +4281,71 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F60" s="3">
         <v>64300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>64600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>67000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>70000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>42600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>32900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>32600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>27100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>32800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>32500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>34100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>31100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,32 +4358,38 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F61" s="3">
         <v>48400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>24900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4129,14 +4415,14 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4149,65 +4435,71 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>25300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>60300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>67600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>41600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>50000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>50700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>34200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>39400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>43600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4512,14 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4589,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4666,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,65 +4743,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94700</v>
+      </c>
+      <c r="F66" s="3">
         <v>132400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>111100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>115400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>120000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>127500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>74200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>77100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>83500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>66800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>68000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>73500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>74700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4820,14 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4853,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4926,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +5003,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4724,14 +5060,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>109200</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4744,8 +5080,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,65 +5157,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-428100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-384100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-376100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-340200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-302700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-272000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-244300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-217800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-194200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-174900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-157800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-146300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-130100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-117600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-106800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-91900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-81100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-66400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5234,14 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5311,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5388,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,65 +5465,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>329500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>171300</v>
+      </c>
+      <c r="F76" s="3">
         <v>172100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>187300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>216700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>240500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>260800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>63000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>82200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>98600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>112900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>121800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>129000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>97500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>106600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>102300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>111600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-61900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5542,14 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5619,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-37500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-26600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-19300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q81" s="3">
         <v>-10800</v>
       </c>
       <c r="R81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="T81" s="3">
         <v>-14700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-25000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-5900</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5811,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5427,19 +5825,19 @@
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5448,19 +5846,19 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5469,25 +5867,31 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>700</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>200</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5961,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +6038,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +6115,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +6192,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6269,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-32500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-36000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-26500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-19700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-15500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>55100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-11600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-9900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-21700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,8 +6379,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5948,70 +6390,76 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6529,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6606,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="F94" s="3">
         <v>29500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>79000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>22600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-122600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-35900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>38900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>56100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>21200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-72200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>21100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-32400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>24900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-23600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>17700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>9000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6716,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6789,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6866,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6943,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +7020,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>39700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>246500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>600</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
+        <v>600</v>
+      </c>
+      <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>42100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>16900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>79000</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>50500</v>
       </c>
       <c r="U100" s="3">
         <v>-200</v>
       </c>
       <c r="V100" s="3">
+        <v>50500</v>
+      </c>
+      <c r="W100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X100" s="3">
         <v>4100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +7174,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="F102" s="3">
         <v>36700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>47800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>104100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-58900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>59100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-81200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>46800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-48100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>11100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>92200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-33600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>46400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,58 +787,58 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>33200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -848,8 +855,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,8 +938,14 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1021,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,85 +1056,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F12" s="3">
         <v>32100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>29100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>31300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>25600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>22500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>21800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>16900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>15700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>13700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>4700</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1218,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1301,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1384,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,85 +1416,93 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F17" s="3">
         <v>43100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>40100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>39400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>42500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>34900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>31900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>23400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>22700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>18400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>15600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>25000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5900</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1451,76 +1510,82 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-37000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-30300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-27200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-23700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-19500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-17700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-15600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-11200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
         <v>-9000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-25000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,8 +1613,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1557,16 +1624,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
@@ -1575,58 +1642,64 @@
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1634,76 +1707,82 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-35200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-36800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-30100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-27100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-23200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-18900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-14700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-10600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>-8700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-24300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1779,85 +1858,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-35900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-37500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-30700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-19300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-17100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-16100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-15000</v>
       </c>
       <c r="S23" s="3">
         <v>-10800</v>
       </c>
       <c r="T23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V23" s="3">
         <v>-14700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-8900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-25000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1933,8 +2024,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2107,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-44000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-35900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-37500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-19300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-16100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-15000</v>
       </c>
       <c r="S26" s="3">
         <v>-10800</v>
       </c>
       <c r="T26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V26" s="3">
         <v>-14700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-8900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-25000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-44000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-35900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-37500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-30700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-27700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-19300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-17100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-16100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-15000</v>
       </c>
       <c r="S27" s="3">
         <v>-10800</v>
       </c>
       <c r="T27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V27" s="3">
         <v>-14700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-8900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-25000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2356,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2318,8 +2439,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2522,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,8 +2605,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2481,16 +2620,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
@@ -2499,135 +2638,147 @@
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-44000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-35900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-37500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-27700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-19300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-16100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-15000</v>
       </c>
       <c r="S33" s="3">
         <v>-10800</v>
       </c>
       <c r="T33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V33" s="3">
         <v>-14700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-8900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-25000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2854,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-44000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-35900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-37500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-27700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-19300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-16100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-15000</v>
       </c>
       <c r="S35" s="3">
         <v>-10800</v>
       </c>
       <c r="T35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V35" s="3">
         <v>-14700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-8900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-25000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +3060,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,71 +3091,73 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>133100</v>
+      </c>
+      <c r="F41" s="3">
         <v>305700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>212800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>176100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>206900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>159100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>160400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>56200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>115100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>95400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>36300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>32600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>113800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>67000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>115100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>104000</v>
       </c>
       <c r="T41" s="3">
         <v>115100</v>
       </c>
       <c r="U41" s="3">
+        <v>104000</v>
+      </c>
+      <c r="V41" s="3">
+        <v>115100</v>
+      </c>
+      <c r="W41" s="3">
         <v>22800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,71 +3170,77 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>210600</v>
+      </c>
+      <c r="F42" s="3">
         <v>65000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>110000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>40200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>70300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>75300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>155600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>180700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>60000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>26000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>65200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>121100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>143400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>71300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>92700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>60600</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>24900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3074,8 +3253,14 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3110,14 +3295,14 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>25000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3127,11 +3312,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3151,8 +3336,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3228,71 +3419,77 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F45" s="3">
         <v>18500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,71 +3502,77 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>357600</v>
+      </c>
+      <c r="F46" s="3">
         <v>389100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>228600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>265300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>258200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>290400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>318500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>344400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>119400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>145200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>164200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>185200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>179200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>188400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>162000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>177900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>106200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>116900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>50900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3585,14 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,71 +3668,77 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F48" s="3">
         <v>30800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>33200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>35000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>36600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>38200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>38600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>40400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>40500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>9000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,8 +3751,14 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3613,8 +3834,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3917,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,8 +4000,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,16 +4018,16 @@
         <v>4200</v>
       </c>
       <c r="F52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3500</v>
       </c>
       <c r="J52" s="3">
         <v>3500</v>
@@ -3797,22 +4036,22 @@
         <v>3500</v>
       </c>
       <c r="L52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -3824,14 +4063,14 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
+        <v>200</v>
+      </c>
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3844,8 +4083,14 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,71 +4166,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>390300</v>
+      </c>
+      <c r="F54" s="3">
         <v>424100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>266000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>304400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>298400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>332100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>360600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>388300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>163400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>156400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>175700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>196400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>188500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>196900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>171000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>181300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>109000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>119000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>54200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4249,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4284,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,71 +4315,73 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4133,26 +4394,32 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>11600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4165,11 +4432,11 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4178,25 +4445,25 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
+        <v>600</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
@@ -4210,71 +4477,77 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F59" s="3">
         <v>25700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>58300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>62600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>65400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>67800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>39200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>31800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>29900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>24900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>31700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>29500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>30600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>27400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4287,71 +4560,77 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F60" s="3">
         <v>40200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>33400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>64300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>64600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>67000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>70000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>42600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>32600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>32500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>32000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>34100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>31100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,38 +4643,44 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F61" s="3">
         <v>38800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>43600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>48400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>24800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>24700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4421,14 +4706,14 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4441,71 +4726,77 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F62" s="3">
         <v>15600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>60300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>67600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>41600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>50000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>50700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>39400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>43600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4518,8 +4809,14 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4892,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4975,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,71 +5058,77 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F66" s="3">
         <v>94600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>94700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>132400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>111100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>115400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>120000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>127500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>74200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>77100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>83500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>66800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>68000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>73500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>74700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5141,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5176,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5255,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5338,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5066,14 +5401,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>109200</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5421,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,71 +5504,77 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-510600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-471400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-428100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-384100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-376100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-340200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-302700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-272000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-244300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-217800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-194200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-174900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-157800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-146300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-130100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-117600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-106800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-91900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-81100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-66400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5240,8 +5587,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5670,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5753,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,71 +5836,77 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>293300</v>
+      </c>
+      <c r="F76" s="3">
         <v>329500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>171300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>172100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>187300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>216700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>240500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>260800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>82200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>98600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>112900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>121800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>129000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>97500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>106600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>102300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>111600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-61900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5548,8 +5919,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +6002,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-44000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-35900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-37500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-27700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-19300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-16100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-15000</v>
       </c>
       <c r="S81" s="3">
         <v>-10800</v>
       </c>
       <c r="T81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="V81" s="3">
         <v>-14700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-8900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-25000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,8 +6208,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5831,19 +6228,19 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -5852,19 +6249,19 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5873,25 +6270,31 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Z83" s="3">
+        <v>200</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6370,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6453,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6536,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6619,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6702,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-34700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-32500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-36000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-31800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-26500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-19800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-15500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>55100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-11600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-9900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-21700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-5700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6820,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6982,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +7065,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="F94" s="3">
         <v>44500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-70600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>29500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>79000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>22600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-122600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-35900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>38900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>56100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>21200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-72200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>21100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-32400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-60900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>24900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-23600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>17700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>9000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +7183,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7262,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7345,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7428,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7511,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>195800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>39700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>246500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>600</v>
       </c>
       <c r="M100" s="3">
         <v>400</v>
       </c>
       <c r="N100" s="3">
+        <v>600</v>
+      </c>
+      <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>42100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>16900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>79000</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V100" s="3">
-        <v>50500</v>
       </c>
       <c r="W100" s="3">
         <v>-200</v>
       </c>
       <c r="X100" s="3">
+        <v>50500</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7677,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-172700</v>
+      </c>
+      <c r="F102" s="3">
         <v>205600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-112700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>36700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-30800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>47800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>104100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-58900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>19700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>59100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-81200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>46800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-48100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-11100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>92200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-33600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>46400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,55 +797,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>33200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -861,8 +865,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,8 +951,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E12" s="3">
         <v>29600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4700</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,82 +1444,83 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="3">
         <v>40400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>5900</v>
       </c>
       <c r="Z17" s="3">
         <v>5900</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
+      <c r="AA17" s="3">
+        <v>5900</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
@@ -1501,8 +1528,11 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1510,73 +1540,73 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-43900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-43100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3">
         <v>-9000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z18" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
+      <c r="AA18" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
@@ -1584,8 +1614,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1648,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1624,73 +1658,73 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-500</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
       </c>
       <c r="J20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
       </c>
       <c r="P20" s="3">
         <v>700</v>
       </c>
       <c r="Q20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="R20" s="3">
         <v>900</v>
       </c>
       <c r="S20" s="3">
+        <v>900</v>
+      </c>
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
@@ -1698,8 +1732,11 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1707,82 +1744,85 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-42600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-14700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>-8700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1864,82 +1904,85 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z23" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
+      <c r="AA23" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
@@ -1947,8 +1990,11 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,82 +2162,85 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-35900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
+      <c r="AA26" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
@@ -2196,82 +2248,85 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
+      <c r="AA27" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2334,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,8 +2678,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2620,73 +2690,73 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
       </c>
       <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
       </c>
       <c r="P32" s="3">
         <v>-700</v>
       </c>
       <c r="Q32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="R32" s="3">
         <v>-900</v>
       </c>
       <c r="S32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
@@ -2694,82 +2764,85 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-35900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
+      <c r="AA33" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
@@ -2777,8 +2850,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,82 +2936,85 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-35900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
+      <c r="AA35" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
@@ -2943,96 +3022,102 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,74 +3179,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E41" s="3">
         <v>103300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>305700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>212800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>176100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>206900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>104000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>115100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,74 +3263,77 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E42" s="3">
         <v>212100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>210600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>110000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>75300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>155600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>180700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>65200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>121100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>143400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>71300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>92700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>60600</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>24900</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,8 +3349,11 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3301,11 +3394,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>25000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3411,8 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3342,8 +3435,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3425,74 +3521,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>3200</v>
       </c>
       <c r="R45" s="3">
         <v>3200</v>
       </c>
       <c r="S45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,74 +3607,77 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>287200</v>
+      </c>
+      <c r="E46" s="3">
         <v>328000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>357600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>389100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>228600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>265300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>258200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>290400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>318500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>344400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>145200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>185200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>179200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>188400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>162000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>177900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>106200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>116900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,8 +3693,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3674,74 +3779,77 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E48" s="3">
         <v>25900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,8 +3865,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,8 +4123,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4024,13 +4144,13 @@
         <v>4200</v>
       </c>
       <c r="H52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3500</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -4042,19 +4162,19 @@
         <v>3500</v>
       </c>
       <c r="N52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -4069,11 +4189,11 @@
         <v>200</v>
       </c>
       <c r="W52" s="3">
+        <v>200</v>
+      </c>
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,74 +4295,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>314700</v>
+      </c>
+      <c r="E54" s="3">
         <v>358200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>390300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>424100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>266000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>304400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>298400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>332100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>388300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>163400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>196400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>188500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>196900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>171000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>181300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>109000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>119000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4381,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,74 +4447,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,29 +4531,32 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4438,8 +4572,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4451,23 +4585,23 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4483,74 +4617,77 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E59" s="3">
         <v>32400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>3400</v>
       </c>
       <c r="V59" s="3">
         <v>3400</v>
       </c>
       <c r="W59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,74 +4703,77 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E60" s="3">
         <v>36400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4649,41 +4789,44 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E61" s="3">
         <v>49700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>24800</v>
       </c>
       <c r="K61" s="3">
         <v>24800</v>
       </c>
       <c r="L61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="M61" s="3">
         <v>24700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4712,11 +4855,11 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4732,73 +4875,76 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
-      </c>
-      <c r="V62" s="3">
-        <v>700</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
+      <c r="X62" s="3">
+        <v>700</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,74 +5219,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E66" s="3">
         <v>97900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5147,8 +5305,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5407,11 +5575,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>109200</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,74 +5681,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-550000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-510600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-471400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-428100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-384100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-376100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-340200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-302700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-272000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-244300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-217800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-174900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-146300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-130100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-117600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-106800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-91900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-66400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5767,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,74 +6025,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E76" s="3">
         <v>260200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>293300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>329500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>172100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>187300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>240500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>260800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>98600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>112900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>121800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>129000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>97500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>106600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>102300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-61900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +6111,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,170 +6197,176 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-35900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-5900</v>
       </c>
       <c r="Z81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
+      <c r="AA81" s="3">
+        <v>-5900</v>
       </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
@@ -6179,8 +6374,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6234,16 +6433,16 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
       </c>
       <c r="L83" s="3">
+        <v>600</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -6255,7 +6454,7 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -6264,7 +6463,7 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -6276,16 +6475,16 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>700</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
+      <c r="AA83" s="3">
+        <v>200</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-36000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>55100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-21700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-700</v>
       </c>
       <c r="T91" s="3">
         <v>-700</v>
       </c>
       <c r="U91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-145700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>44500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>79000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>38900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>56100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>24900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>17700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>9000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1400</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +7760,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>195800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>39700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>246500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>79000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>50500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,87 +7932,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-172700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>205600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-112700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>36700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-81200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-48100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>92200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-33600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>46400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,55 +804,55 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>33200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -868,8 +872,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,8 +961,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,94 +1085,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E12" s="3">
         <v>29700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>4700</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1261,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1350,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,85 +1471,86 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E17" s="3">
         <v>40500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>25000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>5900</v>
       </c>
       <c r="AA17" s="3">
         <v>5900</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
+      <c r="AB17" s="3">
+        <v>5900</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
@@ -1531,8 +1558,11 @@
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1540,76 +1570,76 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-43900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA18" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
+      <c r="AB18" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
@@ -1617,8 +1647,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,8 +1682,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1658,76 +1692,76 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-500</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
       </c>
       <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>700</v>
       </c>
       <c r="Q20" s="3">
         <v>700</v>
       </c>
       <c r="R20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="S20" s="3">
         <v>900</v>
       </c>
       <c r="T20" s="3">
+        <v>900</v>
+      </c>
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
@@ -1735,8 +1769,11 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1744,85 +1781,88 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-38500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-27100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-14700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-24300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1907,85 +1947,88 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-14700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA23" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
+      <c r="AB23" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
@@ -1993,8 +2036,11 @@
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2079,8 +2125,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,85 +2214,88 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-14700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
+      <c r="AB26" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
@@ -2251,85 +2303,88 @@
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-14700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
+      <c r="AB27" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
@@ -2337,8 +2392,11 @@
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,8 +2748,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2690,76 +2760,76 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>500</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
       </c>
       <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-700</v>
       </c>
       <c r="Q32" s="3">
         <v>-700</v>
       </c>
       <c r="R32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="S32" s="3">
         <v>-900</v>
       </c>
       <c r="T32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
@@ -2767,85 +2837,88 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-14700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
+      <c r="AB33" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
@@ -2853,8 +2926,11 @@
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,85 +3015,88 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-14700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
+      <c r="AB35" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
@@ -3025,99 +3104,105 @@
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,77 +3266,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E41" s="3">
         <v>151300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>305700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>212800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>113800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>115100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>104000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>115100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>22800</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,77 +3353,80 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E42" s="3">
         <v>124000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>212100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>210600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>110000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>155600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>180700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>60000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>65200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>121100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>143400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>71300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>92700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>60600</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>24900</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3442,11 @@
       <c r="AD42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3397,11 +3490,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>25000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3414,8 +3507,8 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3438,8 +3531,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3524,77 +3620,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>3200</v>
       </c>
       <c r="S45" s="3">
         <v>3200</v>
       </c>
       <c r="T45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,77 +3709,80 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>259800</v>
+      </c>
+      <c r="E46" s="3">
         <v>287200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>328000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>357600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>389100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>228600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>265300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>258200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>290400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>318500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>344400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>145200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>185200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>179200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>188400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>162000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>177900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>106200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>116900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>50900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3696,8 +3798,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,77 +3887,80 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E48" s="3">
         <v>23400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3976,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,8 +4243,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4147,13 +4267,13 @@
         <v>4200</v>
       </c>
       <c r="I52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3500</v>
       </c>
       <c r="L52" s="3">
         <v>3500</v>
@@ -4165,19 +4285,19 @@
         <v>3500</v>
       </c>
       <c r="O52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -4192,11 +4312,11 @@
         <v>200</v>
       </c>
       <c r="X52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,8 +4332,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,77 +4421,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284900</v>
+      </c>
+      <c r="E54" s="3">
         <v>314700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>358200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>390300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>424100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>266000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>304400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>332100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>360600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>388300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>163400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>175700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>196400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>188500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>196900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>171000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>181300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>109000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>119000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>54200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4384,8 +4510,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,77 +4578,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,32 +4665,35 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4575,8 +4709,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4588,23 +4722,23 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4620,77 +4754,80 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E59" s="3">
         <v>22500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>3400</v>
       </c>
       <c r="W59" s="3">
         <v>3400</v>
       </c>
       <c r="X59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,77 +4843,80 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E60" s="3">
         <v>26200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,44 +4932,47 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E61" s="3">
         <v>49800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>49800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>24800</v>
       </c>
       <c r="L61" s="3">
         <v>24800</v>
       </c>
       <c r="M61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="N61" s="3">
         <v>24700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4858,11 +5001,11 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4878,76 +5021,79 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>67600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>43600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>700</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
+      <c r="Y62" s="3">
+        <v>700</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
@@ -4964,8 +5110,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,77 +5377,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E66" s="3">
         <v>86100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>115400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>127500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6900</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5308,8 +5466,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5578,11 +5746,11 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>109200</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,77 +5855,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-587900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-550000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-510600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-471400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-428100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-384100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-376100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-340200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-302700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-272000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-244300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-217800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-194200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-174900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-146300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-130100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-117600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-106800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-91900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-81100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-66400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5770,8 +5944,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,77 +6211,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E76" s="3">
         <v>228700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>260200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>293300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>329500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>171300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>172100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>187300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>240500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>260800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>98600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>112900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>121800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>129000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>97500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>106600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>102300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>111600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-61900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6114,8 +6300,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,176 +6389,182 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-14700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-5900</v>
       </c>
       <c r="AA81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
+      <c r="AB81" s="3">
+        <v>-5900</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
@@ -6377,8 +6572,11 @@
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,8 +6607,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6436,16 +6635,16 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
       </c>
       <c r="M83" s="3">
+        <v>600</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -6457,7 +6656,7 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -6466,7 +6665,7 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6478,16 +6677,16 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>700</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>200</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
+      <c r="AB83" s="3">
+        <v>200</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
@@ -6495,8 +6694,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-43100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-36000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-15500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>55100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-21700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,8 +7263,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7052,85 +7273,88 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-700</v>
       </c>
       <c r="U91" s="3">
         <v>-700</v>
       </c>
       <c r="V91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E94" s="3">
         <v>90000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-145700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>44500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>79000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-122600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>38900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>56100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>21200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-72200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-60900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>24900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-23600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>17700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>9000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1400</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,94 +8006,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>195800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>39700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>246500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>42100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>79000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>50500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4100</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,90 +8184,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E102" s="3">
         <v>48000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-172700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>205600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-112700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-81200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-48100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>92200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-33600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>46400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SRRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>SRRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,55 +811,55 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>33200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -875,8 +879,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,8 +971,11 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,97 +1099,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E12" s="3">
         <v>26900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>4800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>4700</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1281,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,8 +1373,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,88 +1498,89 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E17" s="3">
         <v>39100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>25000</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>5900</v>
       </c>
       <c r="AB17" s="3">
         <v>5900</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
+      <c r="AC17" s="3">
+        <v>5900</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1588,11 @@
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1570,79 +1600,79 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-43100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB18" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
+      <c r="AC18" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1680,11 @@
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,8 +1716,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1692,79 +1726,79 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>700</v>
       </c>
       <c r="R20" s="3">
         <v>700</v>
       </c>
       <c r="S20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T20" s="3">
         <v>900</v>
       </c>
       <c r="U20" s="3">
+        <v>900</v>
+      </c>
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
+      <c r="AC20" s="3">
+        <v>0</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>3</v>
@@ -1772,8 +1806,11 @@
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1781,88 +1818,91 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-38600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-12200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-14700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-10600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-24300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1950,88 +1990,91 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB23" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
+      <c r="AC23" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
@@ -2039,8 +2082,11 @@
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,8 +2174,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,88 +2266,91 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-39300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-44000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
+      <c r="AC26" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
@@ -2306,88 +2358,91 @@
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-39300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
+      <c r="AC27" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
@@ -2395,8 +2450,11 @@
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,8 +2818,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2760,79 +2830,79 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-700</v>
       </c>
       <c r="R32" s="3">
         <v>-700</v>
       </c>
       <c r="S32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="T32" s="3">
         <v>-900</v>
       </c>
       <c r="U32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
+      <c r="AC32" s="3">
+        <v>0</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>3</v>
@@ -2840,88 +2910,91 @@
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-39300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
+      <c r="AC33" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
@@ -2929,8 +3002,11 @@
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,88 +3094,91 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-39300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
+      <c r="AC35" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
@@ -3107,102 +3186,108 @@
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,80 +3353,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E41" s="3">
         <v>108100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>103300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>305700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>212800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>160400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>115100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>95400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>113800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>67000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>115100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>104000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>115100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22800</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,80 +3443,83 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E42" s="3">
         <v>140700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>124000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>212100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>210600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>110000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>155600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>180700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>60000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>65200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>121100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>143400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>71300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>92700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>60600</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>24900</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3445,8 +3535,11 @@
       <c r="AE42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3493,11 +3586,11 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>25000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,8 +3603,8 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3534,8 +3627,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3623,80 +3719,83 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>3200</v>
       </c>
       <c r="T45" s="3">
         <v>3200</v>
       </c>
       <c r="U45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,80 +3811,83 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E46" s="3">
         <v>259800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>287200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>328000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>357600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>389100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>228600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>265300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>258200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>290400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>318500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>344400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>145200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>185200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>179200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>188400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>162000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>177900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>106200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>116900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>50900</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,8 +3903,11 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,80 +3995,83 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E48" s="3">
         <v>20900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3979,8 +4087,11 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,13 +4363,16 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
         <v>4200</v>
@@ -4270,13 +4390,13 @@
         <v>4200</v>
       </c>
       <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3500</v>
       </c>
       <c r="M52" s="3">
         <v>3500</v>
@@ -4288,19 +4408,19 @@
         <v>3500</v>
       </c>
       <c r="P52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>200</v>
@@ -4315,11 +4435,11 @@
         <v>200</v>
       </c>
       <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4335,8 +4455,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,80 +4547,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E54" s="3">
         <v>284900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>314700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>358200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>390300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>424100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>266000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>304400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>298400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>332100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>360600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>388300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>163400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>175700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>196400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>188500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>196900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>171000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>181300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>109000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>119000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>54200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4513,8 +4639,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,80 +4709,81 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4799,11 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4679,24 +4813,24 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4712,8 +4846,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4725,23 +4859,23 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4757,80 +4891,83 @@
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
         <v>21200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>27400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>3400</v>
       </c>
       <c r="X59" s="3">
         <v>3400</v>
       </c>
       <c r="Y59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4846,80 +4983,83 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E60" s="3">
         <v>24300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>31100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5900</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4935,47 +5075,50 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E61" s="3">
         <v>49900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>49700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>49800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>24800</v>
       </c>
       <c r="M61" s="3">
         <v>24800</v>
       </c>
       <c r="N61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="O61" s="3">
         <v>24700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -5004,11 +5147,11 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5024,79 +5167,82 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>67600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>43600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
-      </c>
-      <c r="X62" s="3">
-        <v>700</v>
       </c>
       <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
+      <c r="Z62" s="3">
+        <v>700</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
@@ -5113,8 +5259,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,80 +5535,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>115400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>120000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>127500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6900</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,8 +5627,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5749,11 +5917,11 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>109200</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,80 +6029,83 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-630300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-587900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-550000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-510600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-471400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-428100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-384100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-376100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-340200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-302700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-272000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-244300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-217800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-174900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-157800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-146300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-130100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-117600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-106800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-91900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-81100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-66400</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5947,8 +6121,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,80 +6397,83 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>167700</v>
+      </c>
+      <c r="E76" s="3">
         <v>202500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>228700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>260200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>293300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>171300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>172100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>187300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>216700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>240500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>260800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>112900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>121800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>129000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>97500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>106600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>102300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-61900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6303,8 +6489,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,182 +6581,188 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-39300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-25000</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-5900</v>
       </c>
       <c r="AB81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
+      <c r="AC81" s="3">
+        <v>-5900</v>
       </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
@@ -6575,8 +6770,11 @@
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,8 +6806,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6638,16 +6837,16 @@
         <v>700</v>
       </c>
       <c r="L83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
       </c>
       <c r="N83" s="3">
+        <v>600</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
@@ -6659,7 +6858,7 @@
         <v>400</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -6668,7 +6867,7 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -6680,16 +6879,16 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
         <v>700</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>200</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
+      <c r="AC83" s="3">
+        <v>200</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>3</v>
@@ -6697,8 +6896,11 @@
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-43100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-34700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-15500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>55100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-21700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,8 +7484,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7276,85 +7497,88 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-700</v>
       </c>
       <c r="V91" s="3">
         <v>-700</v>
       </c>
       <c r="W91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>90000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-145700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-122600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>38900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>56100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-72200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>21100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-60900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>24900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-23600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>17700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>9000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1400</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,97 +8252,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>195800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>39700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>246500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>42100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>79000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>50500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4100</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,93 +8436,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-172700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>205600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-112700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>104100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-58900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>59100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-81200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>46800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-48100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>92200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-33600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>46400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
